--- a/기획서/221011_데이트 시스템 기획서_V100.xlsx
+++ b/기획서/221011_데이트 시스템 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템 플로우" sheetId="5" r:id="rId1"/>
@@ -265,6 +265,60 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585702" y="6078759"/>
+          <a:ext cx="577533" cy="140506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -578,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/기획서/221011_데이트 시스템 기획서_V100.xlsx
+++ b/기획서/221011_데이트 시스템 기획서_V100.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="전체 시스템 플로우" sheetId="5" r:id="rId1"/>
-    <sheet name="데이트" sheetId="1" r:id="rId2"/>
-    <sheet name="데이트코스" sheetId="6" r:id="rId3"/>
+    <sheet name="flow" sheetId="5" r:id="rId1"/>
+    <sheet name="date" sheetId="1" r:id="rId2"/>
+    <sheet name="date코스" sheetId="6" r:id="rId3"/>
+    <sheet name="buildings" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>데이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">선택지의 Type이 NPC 의 세부 취향 중 LIKE와 일치해야 함 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정해진 5개의 경로 중 2개가 랜덤으로 출력 된다. 플레이어는 그 중 하나를 선택하여 이동 경로를 지정한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건물 mesh에 올리면 성공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자세한 사항은 "신규 경로 시스템 기획서" 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이트가 성공하면 NPC의 호감도가 상승, 실패 시 호감도 하락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,7 +125,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VPS 이벤트 발생 위치 및 연출</t>
+    <t>건물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행 방식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 이벤트 발생 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행 방식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 mesh에 적용하면 성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지의 리소스 Type&amp;캐릭터 세부 취향=성공 여부(성공=True/실패=False)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지의 Type이 NPC 의 세부 취향 중 Like와 일치해야 함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정 - 콘텐츠 기획서 작성 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 개념 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 애니메이션 및 대사 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ Case1. Like&amp;Like=True / Case2. Like&amp;Hate=False / Case3. Hate&amp;Hate=False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 Date Type 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">건물 인식 UI 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물에 입력된 선택지 GUI 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 선택, 선택지의 유형 판단 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 이벤트의 성공 조건 판단 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buildings" sheet 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">성or패에 따른 호감도 수치 상승or하락 및 관련 애니메이션 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings sheet, UI 기획서, 애니메이션 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,16 +401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>55469</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>205067</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>380441</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>599714</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>44296</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>241128</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,7 +427,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1568263" y="11579038"/>
+          <a:off x="10779500" y="537882"/>
           <a:ext cx="9430510" cy="8288464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -632,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,158 +719,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C30"/>
+  <dimension ref="C2:E41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="5" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+    <row r="38" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +1001,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/221011_데이트 시스템 기획서_V100.xlsx
+++ b/기획서/221011_데이트 시스템 기획서_V100.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효진\OneDrive\바탕 화면\RocketTeamDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E704F4-F073-44E4-86E7-35E4E2BC2CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="9015" yWindow="1590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="flow" sheetId="5" r:id="rId1"/>
-    <sheet name="date" sheetId="1" r:id="rId2"/>
-    <sheet name="date코스" sheetId="6" r:id="rId3"/>
-    <sheet name="buildings" sheetId="9" r:id="rId4"/>
+    <sheet name="전체 시스템 플로우" sheetId="5" r:id="rId1"/>
+    <sheet name="Date" sheetId="1" r:id="rId2"/>
+    <sheet name="Map" sheetId="6" r:id="rId3"/>
+    <sheet name="UI" sheetId="10" r:id="rId4"/>
+    <sheet name="buildings" sheetId="11" r:id="rId5"/>
+    <sheet name="buildings 칼럼설명" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,27 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
-  <si>
-    <t>데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 데이트 시스템 기획서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>1.1 기획 의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자세한 사항은 "신규 경로 시스템 기획서" 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 데이트 상호작용 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">플레이어가 NPC의 호감도를 올릴 수 있는 메인 콘텐츠 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,46 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이트가 성공하면 NPC의 호감도가 상승, 실패 시 호감도 하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"숨겨진 이야기" 등 다양한 곳에서 파악한 NPC의 취향에 따라 Like 선택지를 골라야한다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이트 유형에 따른 성공 조건을 만족 시 100% 확률로 등장하는 특별 VPS 연출 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5 전체 데이트 시스템 플로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이트 코스(Map)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진행 방식 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPS 이벤트 발생 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진행 방식 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>건물 mesh에 적용하면 성공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,30 +92,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미정 - 콘텐츠 기획서 작성 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.2 개념 정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC 애니메이션 및 대사 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄴ Case1. Like&amp;Like=True / Case2. Like&amp;Hate=False / Case3. Hate&amp;Hate=False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건물 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 Date Type 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">건물 인식 UI 출력 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,35 +108,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">플레이어 선택, 선택지의 유형 판단 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">해당 이벤트의 성공 조건 판단 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"buildings" sheet 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련 문서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">성or패에 따른 호감도 수치 상승or하락 및 관련 애니메이션 출력 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buildings sheet, UI 기획서, 애니메이션 기획서</t>
+    <t>건물 date Type 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 선택 후 해당 선택지의 Type 판단 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch&amp;Draw할 수 있는 화이트보드 UI 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch&amp;Draw 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 글씨 에셋화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 벽 상세 위치 지정 안내 UI 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 에셋 건물 mesh에 적용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트가 성공하면 NPC의 호감도 20+ 상승, 실패 시 호감도 15- 하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 VPS 이벤트 안내 UI 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buildings" 시스템 기획서 참조(작성 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 위치에 있는 VPS 연출 Type 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 NPC 애니메이션 및 대사 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 연출 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초 재생 후 나가기 UI 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ관련문서: buildings 시스템 기획서, UI 기획서, 애니메이션 기획서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"숨겨진 이야기" 등 다양한 곳에서 파악한 NPC의 취향에 맞는 선택지를 골라야한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VPS 연출 에셋 파일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 연출 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hate2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에셋 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc대사0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc Ani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc대사1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc대사2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc대사3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 UI 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세부 설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이트코스 지정 UI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세한 사항은 "Map" sheet 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트 진행 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 인식 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateType A -선택지 출현 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 성공 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 진행 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 데이트 코스(Map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 건물 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">▶ 진행 방식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Type에 따른 성공 조건을 만족 시 100% 확률로 등장하는 특별 VPS 연출 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 데이트 유형 Date Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 발생 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 데이트 시스템 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DateType B - 화이트 보드 UI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VPS 안내 UI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 연출 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 나가기 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateType A -선택 후 Like/Hate UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 구조 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 시스템 플로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 호감도는 NPC에게 귀속되어 있는 시스템이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트 시스템 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,21 +421,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -273,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +486,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,20 +535,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6281</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>164656</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84722</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>220686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>144743</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152729</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>223184</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>287200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -330,8 +567,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="686638" y="572870"/>
-          <a:ext cx="11704534" cy="7540038"/>
+          <a:off x="1631134" y="5420215"/>
+          <a:ext cx="11758962" cy="7865808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,25 +579,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195673</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5585702" y="6078759"/>
+          <a:off x="6526997" y="10908496"/>
           <a:ext cx="577533" cy="140506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -394,6 +637,55 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>276244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6DA120-381A-CD45-177A-34ECBBBF969E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2274794" y="1882590"/>
+          <a:ext cx="9973236" cy="3268213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -401,20 +693,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>380441</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114440</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>194436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>241128</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>52140</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>521778</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>33027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -427,8 +725,101 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10779500" y="537882"/>
-          <a:ext cx="9430510" cy="8288464"/>
+          <a:off x="1489353" y="15699479"/>
+          <a:ext cx="9485078" cy="8237157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>435240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82930277-F2ED-5DD9-33FB-3C2E49318539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="504825"/>
+          <a:ext cx="9312540" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>481665</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607547A5-2EB6-E67D-ABAC-198FD52ACF57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="6115050"/>
+          <a:ext cx="9397065" cy="5324475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,11 +1093,653 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:U44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="3:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="5" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="18" spans="3:21" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="44" spans="5:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:U3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:Q69"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="1.875" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="3:17" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="7"/>
+      <c r="D57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="3"/>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="6"/>
+      <c r="D69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:Q3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -717,306 +1750,241 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3513365-7F36-4307-BD7D-9C4F6608D3DD}">
+  <dimension ref="C3:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C511C0-6D77-4752-A8F2-7AEDD86005D9}">
+  <dimension ref="B1:T13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D658C64-F070-439A-BB5A-B0121B361845}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
